--- a/BackTest/2020-01-16 BackTest LOOM.xlsx
+++ b/BackTest/2020-01-16 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.43</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +554,23 @@
         <v>-594755.2646655526</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +595,23 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>18.22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +636,23 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +677,21 @@
         <v>-597243.0761655526</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -714,24 +718,19 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +755,21 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,26 +794,23 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="J11" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -844,26 +835,23 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="J12" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -888,24 +876,23 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>18.47</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -930,24 +917,23 @@
         <v>-568002.3486655527</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>18.47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -972,24 +958,21 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1014,24 +997,23 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>18.29</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1056,24 +1038,21 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1098,26 +1077,23 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="J18" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1142,24 +1118,21 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1184,24 +1157,21 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1226,24 +1196,21 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1268,26 +1235,23 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="J22" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1314,24 +1278,19 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1358,24 +1317,19 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="K24" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1402,24 +1356,19 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="K25" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1446,24 +1395,19 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="K26" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>18.43</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1488,24 +1432,21 @@
         <v>-790541.4481655527</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1530,24 +1471,21 @@
         <v>-769088.5822655527</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1572,24 +1510,21 @@
         <v>-767988.5822655527</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1616,22 +1551,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1658,22 +1590,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1700,22 +1629,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1740,24 +1666,23 @@
         <v>-740776.4463655527</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>18.53</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1782,24 +1707,23 @@
         <v>-1022064.032465553</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>18.56</v>
+      </c>
+      <c r="J34" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1826,22 +1750,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1868,22 +1789,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1910,22 +1828,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1952,22 +1867,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1994,22 +1906,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2036,22 +1945,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2078,22 +1984,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2120,22 +2023,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2160,24 +2060,23 @@
         <v>-698548.4927655528</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>18.57</v>
+      </c>
+      <c r="J43" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2204,22 +2103,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2246,22 +2142,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2288,22 +2181,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2330,22 +2220,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2372,22 +2259,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1.037857142857143</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2414,16 +2298,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2450,16 +2337,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2486,16 +2376,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2520,18 +2413,21 @@
         <v>-755195.7096655528</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.024842647856755</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2556,18 +2452,15 @@
         <v>-731495.7096655528</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2592,18 +2485,15 @@
         <v>-737172.7095655529</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2628,18 +2518,15 @@
         <v>-737172.7095655529</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2664,18 +2551,15 @@
         <v>-738925.3120655529</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2700,18 +2584,15 @@
         <v>-723125.3120655529</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2736,18 +2617,15 @@
         <v>-723798.9506655529</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2772,18 +2650,15 @@
         <v>-734338.9506655529</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2810,16 +2685,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2846,16 +2718,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2882,16 +2751,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2918,16 +2784,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,16 +2817,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2988,18 +2848,15 @@
         <v>-883928.1277655528</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3026,16 +2883,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3060,18 +2914,15 @@
         <v>-895869.8763655529</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3096,18 +2947,15 @@
         <v>-866219.4463655528</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3132,18 +2980,15 @@
         <v>-910681.3138655529</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3168,18 +3013,15 @@
         <v>-936012.3138655529</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3206,16 +3048,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3242,16 +3081,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3278,16 +3114,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3314,16 +3147,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3350,16 +3180,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3386,16 +3213,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3422,16 +3246,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3458,16 +3279,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3494,16 +3312,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3530,16 +3345,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3566,16 +3378,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3602,16 +3411,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3638,16 +3444,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3674,16 +3477,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3710,16 +3510,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3746,16 +3543,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3782,16 +3576,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3818,16 +3609,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3854,16 +3642,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3890,16 +3675,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3926,16 +3708,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3962,16 +3741,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3998,16 +3774,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4032,18 +3805,15 @@
         <v>-686516.6343655528</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4070,16 +3840,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4106,16 +3873,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4142,16 +3906,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4176,18 +3937,15 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4214,16 +3972,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4250,16 +4005,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4286,16 +4038,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4322,16 +4071,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4358,16 +4104,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4394,16 +4137,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4430,16 +4170,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4466,16 +4203,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4502,16 +4236,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4538,16 +4269,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4574,16 +4302,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4610,16 +4335,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4646,16 +4368,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4680,18 +4399,15 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4716,20 +4432,17 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LOOM.xlsx
+++ b/BackTest/2020-01-16 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>-594755.2646655526</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="J5" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="J6" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,17 +616,15 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>18.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -677,12 +655,12 @@
         <v>-597243.0761655526</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>18.43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -718,10 +696,10 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I9" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -755,12 +733,12 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>18.43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -794,14 +772,12 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>18.3</v>
       </c>
-      <c r="J11" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -835,14 +811,12 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>18.3</v>
       </c>
-      <c r="J12" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -876,14 +850,12 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>18.47</v>
       </c>
-      <c r="J13" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -917,14 +889,12 @@
         <v>-568002.3486655527</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>18.47</v>
       </c>
-      <c r="J14" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -960,10 +930,10 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I15" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -997,14 +967,12 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>18.29</v>
       </c>
-      <c r="J16" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1040,10 +1008,10 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I17" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1077,14 +1045,12 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>18.3</v>
       </c>
-      <c r="J18" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1120,10 +1086,10 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I19" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1159,10 +1125,10 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I20" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1196,12 +1162,10 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,14 +1199,12 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>18.3</v>
       </c>
-      <c r="J22" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,10 +1240,10 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I23" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1317,10 +1279,10 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I24" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1356,10 +1318,10 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I25" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1395,10 +1357,10 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I26" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1434,10 +1396,10 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="I27" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1471,12 +1433,10 @@
         <v>-769088.5822655527</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1510,12 +1470,10 @@
         <v>-767988.5822655527</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,9 +1510,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1591,9 +1547,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,9 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1666,14 +1618,10 @@
         <v>-740776.4463655527</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="J33" t="n">
-        <v>18.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1707,14 +1655,10 @@
         <v>-1022064.032465553</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="J34" t="n">
-        <v>18.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,9 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1790,9 +1732,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1829,9 +1769,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1868,9 +1806,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1907,9 +1843,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1946,9 +1880,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1985,9 +1917,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2024,9 +1954,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2060,14 +1988,10 @@
         <v>-698548.4927655528</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="J43" t="n">
-        <v>18.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,9 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2143,9 +2065,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2182,9 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2221,9 +2139,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2260,9 +2176,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2299,9 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2338,9 +2250,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,9 +2287,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2413,19 +2321,17 @@
         <v>-755195.7096655528</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>18.43</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.024842647856755</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -2452,11 +2358,15 @@
         <v>-731495.7096655528</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2485,11 +2395,15 @@
         <v>-737172.7095655529</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2432,15 @@
         <v>-737172.7095655529</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2551,11 +2469,15 @@
         <v>-738925.3120655529</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2506,15 @@
         <v>-723125.3120655529</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2617,11 +2543,15 @@
         <v>-723798.9506655529</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2650,11 +2580,15 @@
         <v>-734338.9506655529</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2687,7 +2621,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2720,7 +2658,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2753,7 +2695,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2786,7 +2732,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2819,7 +2769,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2848,11 +2802,15 @@
         <v>-883928.1277655528</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2885,7 +2843,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2914,11 +2876,15 @@
         <v>-895869.8763655529</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2947,11 +2913,15 @@
         <v>-866219.4463655528</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2980,11 +2950,15 @@
         <v>-910681.3138655529</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3013,11 +2987,15 @@
         <v>-936012.3138655529</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3050,7 +3028,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3065,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3116,7 +3102,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3149,7 +3139,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3182,7 +3176,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3215,7 +3213,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3248,7 +3250,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3281,7 +3287,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3314,7 +3324,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3347,7 +3361,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3380,7 +3398,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3413,7 +3435,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3446,7 +3472,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3479,7 +3509,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3512,7 +3546,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3545,7 +3583,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3578,7 +3620,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3611,7 +3657,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3644,7 +3694,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3677,7 +3731,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3710,7 +3768,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3743,7 +3805,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3776,7 +3842,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3805,14 +3875,16 @@
         <v>-686516.6343655528</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3838,7 +3910,7 @@
         <v>-714570.9488655528</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3937,7 +4009,7 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4333,7 +4405,7 @@
         <v>-770398.2881655527</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4366,7 +4438,7 @@
         <v>-768398.2881655527</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4399,7 +4471,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4432,7 +4504,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4443,6 +4515,6 @@
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LOOM.xlsx
+++ b/BackTest/2020-01-16 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,17 +616,11 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -655,17 +649,11 @@
         <v>-597243.0761655526</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -694,17 +682,11 @@
         <v>-653021.0761655526</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>18.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -733,17 +715,11 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -772,17 +748,11 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -811,17 +781,11 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -850,17 +814,11 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -889,17 +847,11 @@
         <v>-568002.3486655527</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -928,17 +880,11 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,17 +913,11 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,17 +946,11 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,17 +979,11 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,17 +1012,11 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,17 +1045,11 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1199,17 +1111,11 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,17 +1144,11 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,17 +1177,11 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,17 +1210,11 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>18.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1355,17 +1243,11 @@
         <v>-549934.2423655527</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>18.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1394,17 +1276,11 @@
         <v>-790541.4481655527</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1437,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1470,15 +1342,15 @@
         <v>-767988.5822655527</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1507,13 +1379,17 @@
         <v>-764060.3906655527</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="J30" t="n">
+        <v>18.39</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1544,13 +1420,17 @@
         <v>-763924.3906655527</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="J31" t="n">
+        <v>18.39</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1585,11 +1465,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1622,11 +1498,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1659,11 +1531,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1696,11 +1564,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1733,11 +1597,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1770,11 +1630,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1807,11 +1663,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1844,11 +1696,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1881,11 +1729,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1918,11 +1762,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1955,11 +1795,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1992,11 +1828,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2029,11 +1861,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2066,11 +1894,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2103,11 +1927,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2140,11 +1960,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2173,15 +1989,11 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2210,15 +2022,11 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2247,15 +2055,11 @@
         <v>-764951.4287655528</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2288,11 +2092,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2325,11 +2125,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2362,11 +2158,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2399,11 +2191,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2436,11 +2224,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2469,15 +2253,11 @@
         <v>-738925.3120655529</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2506,15 +2286,11 @@
         <v>-723125.3120655529</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2543,15 +2319,11 @@
         <v>-723798.9506655529</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2580,15 +2352,11 @@
         <v>-734338.9506655529</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,15 +2385,11 @@
         <v>-728558.9506655529</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,15 +2418,11 @@
         <v>-718558.9506655529</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2455,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2732,11 +2488,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2769,11 +2521,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2806,11 +2554,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,15 +2583,11 @@
         <v>-899801.1277655528</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2876,15 +2616,11 @@
         <v>-895869.8763655529</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2913,15 +2649,11 @@
         <v>-866219.4463655528</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,15 +2682,11 @@
         <v>-910681.3138655529</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2991,11 +2719,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3024,15 +2748,11 @@
         <v>-883336.5152655529</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,15 +2781,11 @@
         <v>-883202.9911655529</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +2818,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3139,11 +2851,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3176,11 +2884,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3213,11 +2917,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3250,11 +2950,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3287,11 +2983,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3324,11 +3016,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +3049,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3398,11 +3082,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3435,11 +3115,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3148,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3181,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3546,11 +3214,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3583,11 +3247,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3620,11 +3280,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3657,11 +3313,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +3346,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3731,11 +3379,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3768,11 +3412,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3805,11 +3445,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3842,11 +3478,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3875,16 +3507,14 @@
         <v>-686516.6343655528</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3910,7 +3540,7 @@
         <v>-714570.9488655528</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4042,10 +3672,14 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J99" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -4078,8 +3712,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4111,8 +3751,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4405,7 +4051,7 @@
         <v>-770398.2881655527</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4438,7 +4084,7 @@
         <v>-768398.2881655527</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4471,7 +4117,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4504,7 +4150,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4515,6 +4161,6 @@
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LOOM.xlsx
+++ b/BackTest/2020-01-16 BackTest LOOM.xlsx
@@ -484,7 +484,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,11 +583,17 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.22</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +622,17 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,17 @@
         <v>-597243.0761655526</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +700,17 @@
         <v>-653021.0761655526</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18.21</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +739,17 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +778,17 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +817,17 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,17 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18.47</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +895,17 @@
         <v>-568002.3486655527</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.47</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +934,17 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18.32</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +973,17 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18.29</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1012,17 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18.29</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1051,17 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1090,17 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1129,17 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1168,17 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1207,17 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1246,17 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.21</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1285,17 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.21</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1324,17 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18.26</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1363,17 @@
         <v>-549934.2423655527</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>18.26</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1402,17 @@
         <v>-790541.4481655527</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1441,17 @@
         <v>-769088.5822655527</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18.15</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1347,10 +1485,12 @@
       <c r="I29" t="n">
         <v>18.39</v>
       </c>
-      <c r="J29" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1384,12 +1524,10 @@
       <c r="I30" t="n">
         <v>18.42</v>
       </c>
-      <c r="J30" t="n">
-        <v>18.39</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1420,17 +1558,13 @@
         <v>-763924.3906655527</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="J31" t="n">
-        <v>18.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1461,11 +1595,17 @@
         <v>-763924.3906655527</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>18.53</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1494,11 +1634,17 @@
         <v>-740776.4463655527</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18.53</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1527,11 +1673,17 @@
         <v>-1022064.032465553</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18.56</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1564,7 +1716,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1593,11 +1749,17 @@
         <v>-716426.0310655527</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1630,7 +1792,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1663,7 +1829,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1696,7 +1866,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1729,7 +1903,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1762,7 +1940,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1795,7 +1977,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1828,7 +2014,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1861,7 +2051,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1894,7 +2088,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1927,7 +2125,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1960,7 +2162,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1989,11 +2195,15 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2022,11 +2232,15 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +2269,15 @@
         <v>-764951.4287655528</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2092,7 +2310,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2125,7 +2347,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2158,7 +2384,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2191,7 +2421,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2224,7 +2458,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,11 +2491,15 @@
         <v>-738925.3120655529</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2528,15 @@
         <v>-723125.3120655529</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,11 +2565,15 @@
         <v>-723798.9506655529</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,11 +2602,15 @@
         <v>-734338.9506655529</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2639,17 @@
         <v>-728558.9506655529</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2678,17 @@
         <v>-718558.9506655529</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>18.78</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2717,17 @@
         <v>-718558.9506655529</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>18.85</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,11 +2756,17 @@
         <v>-718808.9506655529</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>18.85</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2795,17 @@
         <v>-713928.1277655528</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>18.75</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,11 +2834,17 @@
         <v>-883928.1277655528</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18.85</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2873,15 @@
         <v>-899801.1277655528</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,11 +2910,17 @@
         <v>-895869.8763655529</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>18.51</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2949,17 @@
         <v>-866219.4463655528</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18.79</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +2988,17 @@
         <v>-910681.3138655529</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18.86</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,11 +3027,17 @@
         <v>-936012.3138655529</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18.79</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +3066,17 @@
         <v>-883336.5152655529</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18.59</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,11 +3105,17 @@
         <v>-883202.9911655529</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +3144,17 @@
         <v>-883794.9911655529</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>18.84</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2851,7 +3187,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,7 +3224,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,7 +3261,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2950,7 +3298,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2983,7 +3335,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3016,7 +3372,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3049,7 +3409,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3082,7 +3446,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3115,7 +3483,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3148,7 +3520,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3181,7 +3557,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3214,7 +3594,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3247,7 +3631,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3280,7 +3668,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3313,7 +3705,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3738,17 @@
         <v>-700036.3996655529</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3777,17 @@
         <v>-700036.3996655529</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>18.76</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,11 +3816,17 @@
         <v>-700036.3996655529</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>18.76</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3855,17 @@
         <v>-662636.3996655529</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18.76</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,11 +3894,17 @@
         <v>-657794.3781655529</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>18.96</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3511,7 +3937,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3544,7 +3974,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,11 +4007,17 @@
         <v>-710261.1111655527</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>18.77</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3610,7 +4050,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +4083,17 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>18.74</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,15 +4122,15 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J99" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3712,12 +4162,10 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>18.71</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3751,12 +4199,10 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>18.71</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3791,7 +4237,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3824,7 +4274,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3857,7 +4311,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3890,7 +4348,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4385,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3952,14 +4418,16 @@
         <v>-772589.4611655526</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -3985,7 +4453,7 @@
         <v>-770914.9458655526</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4018,7 +4486,7 @@
         <v>-770914.9458655526</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4051,7 +4519,7 @@
         <v>-770398.2881655527</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4552,7 @@
         <v>-768398.2881655527</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4585,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4150,7 +4618,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest LOOM.xlsx
+++ b/BackTest/2020-01-16 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>28225.6698</v>
       </c>
       <c r="G2" t="n">
-        <v>-585815.2647655526</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2039.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>-587855.2646655526</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>548</v>
       </c>
       <c r="G4" t="n">
-        <v>-587855.2646655526</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>6900</v>
       </c>
       <c r="G5" t="n">
-        <v>-594755.2646655526</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,24 +563,15 @@
         <v>4237.8115</v>
       </c>
       <c r="G6" t="n">
-        <v>-598993.0761655526</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -619,24 +593,15 @@
         <v>27684.4808</v>
       </c>
       <c r="G7" t="n">
-        <v>-598993.0761655526</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,24 +623,19 @@
         <v>1750</v>
       </c>
       <c r="G8" t="n">
-        <v>-597243.0761655526</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>18.2</v>
       </c>
       <c r="I8" t="n">
         <v>18.2</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,24 +657,23 @@
         <v>55778</v>
       </c>
       <c r="G9" t="n">
-        <v>-653021.0761655526</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>18.21</v>
       </c>
       <c r="I9" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -736,24 +695,21 @@
         <v>70686</v>
       </c>
       <c r="G10" t="n">
-        <v>-582335.0761655526</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>18.2</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -775,24 +731,21 @@
         <v>1105.0767</v>
       </c>
       <c r="G11" t="n">
-        <v>-582335.0761655526</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -814,24 +767,21 @@
         <v>34486.7135</v>
       </c>
       <c r="G12" t="n">
-        <v>-547848.3626655526</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -853,24 +803,21 @@
         <v>138.8768</v>
       </c>
       <c r="G13" t="n">
-        <v>-547848.3626655526</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -892,24 +839,21 @@
         <v>20153.986</v>
       </c>
       <c r="G14" t="n">
-        <v>-568002.3486655527</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,24 +875,21 @@
         <v>23281.1372</v>
       </c>
       <c r="G15" t="n">
-        <v>-591283.4858655527</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,24 +911,23 @@
         <v>2572.7718</v>
       </c>
       <c r="G16" t="n">
-        <v>-591283.4858655527</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>18.29</v>
       </c>
       <c r="I16" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1009,24 +949,23 @@
         <v>25442.8347</v>
       </c>
       <c r="G17" t="n">
-        <v>-565840.6511655527</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>18.29</v>
       </c>
       <c r="I17" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1048,24 +987,23 @@
         <v>2725.1324</v>
       </c>
       <c r="G18" t="n">
-        <v>-565840.6511655527</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>18.3</v>
       </c>
       <c r="I18" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1087,24 +1025,23 @@
         <v>15512.3985</v>
       </c>
       <c r="G19" t="n">
-        <v>-565840.6511655527</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>18.3</v>
       </c>
       <c r="I19" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,24 +1063,23 @@
         <v>81192.6887</v>
       </c>
       <c r="G20" t="n">
-        <v>-565840.6511655527</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>18.3</v>
       </c>
       <c r="I20" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1165,24 +1101,23 @@
         <v>5691.6148</v>
       </c>
       <c r="G21" t="n">
-        <v>-565840.6511655527</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>18.3</v>
       </c>
       <c r="I21" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1204,24 +1139,23 @@
         <v>13228.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>-579069.6510655527</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>18.3</v>
       </c>
       <c r="I22" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1243,24 +1177,21 @@
         <v>57620.5231</v>
       </c>
       <c r="G23" t="n">
-        <v>-579069.6510655527</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1282,24 +1213,23 @@
         <v>28230.4087</v>
       </c>
       <c r="G24" t="n">
-        <v>-550839.2423655527</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>18.21</v>
       </c>
       <c r="I24" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1321,24 +1251,23 @@
         <v>10398.777</v>
       </c>
       <c r="G25" t="n">
-        <v>-550839.2423655527</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>18.26</v>
       </c>
       <c r="I25" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,24 +1289,23 @@
         <v>905</v>
       </c>
       <c r="G26" t="n">
-        <v>-549934.2423655527</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>18.26</v>
       </c>
       <c r="I26" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1399,24 +1327,23 @@
         <v>240607.2058</v>
       </c>
       <c r="G27" t="n">
-        <v>-790541.4481655527</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>18.3</v>
       </c>
       <c r="I27" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1438,24 +1365,23 @@
         <v>21452.8659</v>
       </c>
       <c r="G28" t="n">
-        <v>-769088.5822655527</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>18.15</v>
       </c>
       <c r="I28" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1477,24 +1403,23 @@
         <v>1100</v>
       </c>
       <c r="G29" t="n">
-        <v>-767988.5822655527</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>18.39</v>
       </c>
       <c r="I29" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1516,24 +1441,23 @@
         <v>3928.1916</v>
       </c>
       <c r="G30" t="n">
-        <v>-764060.3906655527</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>18.42</v>
       </c>
       <c r="I30" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1555,22 +1479,23 @@
         <v>136</v>
       </c>
       <c r="G31" t="n">
-        <v>-763924.3906655527</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>18.51</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1592,24 +1517,23 @@
         <v>300</v>
       </c>
       <c r="G32" t="n">
-        <v>-763924.3906655527</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>18.53</v>
       </c>
       <c r="I32" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1631,24 +1555,23 @@
         <v>23147.9443</v>
       </c>
       <c r="G33" t="n">
-        <v>-740776.4463655527</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>18.53</v>
       </c>
       <c r="I33" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1670,24 +1593,23 @@
         <v>281287.5861</v>
       </c>
       <c r="G34" t="n">
-        <v>-1022064.032465553</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>18.56</v>
       </c>
       <c r="I34" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1709,22 +1631,23 @@
         <v>1240</v>
       </c>
       <c r="G35" t="n">
-        <v>-1022064.032465553</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>18.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1746,24 +1669,23 @@
         <v>305638.0014</v>
       </c>
       <c r="G36" t="n">
-        <v>-716426.0310655527</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>18.4</v>
       </c>
       <c r="I36" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1785,22 +1707,23 @@
         <v>12788.8451</v>
       </c>
       <c r="G37" t="n">
-        <v>-703637.1859655527</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>18.48</v>
+      </c>
+      <c r="I37" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1822,22 +1745,21 @@
         <v>2849.8113</v>
       </c>
       <c r="G38" t="n">
-        <v>-700787.3746655528</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1859,22 +1781,23 @@
         <v>20887.031</v>
       </c>
       <c r="G39" t="n">
-        <v>-679900.3436655528</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>18.57</v>
+      </c>
+      <c r="I39" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1896,22 +1819,23 @@
         <v>6382.3219</v>
       </c>
       <c r="G40" t="n">
-        <v>-679900.3436655528</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>18.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1933,22 +1857,23 @@
         <v>38.1549</v>
       </c>
       <c r="G41" t="n">
-        <v>-679862.1887655528</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>18.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1970,22 +1895,23 @@
         <v>19708.304</v>
       </c>
       <c r="G42" t="n">
-        <v>-699570.4927655528</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>18.62</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2007,22 +1933,23 @@
         <v>1022</v>
       </c>
       <c r="G43" t="n">
-        <v>-698548.4927655528</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>18.57</v>
+      </c>
+      <c r="I43" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2044,22 +1971,21 @@
         <v>22500.1067</v>
       </c>
       <c r="G44" t="n">
-        <v>-676048.3860655528</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2081,22 +2007,21 @@
         <v>10490.4537</v>
       </c>
       <c r="G45" t="n">
-        <v>-665557.9323655529</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2118,22 +2043,21 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>-675557.9323655529</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2155,22 +2079,21 @@
         <v>1500</v>
       </c>
       <c r="G47" t="n">
-        <v>-674057.9323655529</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2192,22 +2115,21 @@
         <v>50000</v>
       </c>
       <c r="G48" t="n">
-        <v>-724057.9323655529</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2229,22 +2151,21 @@
         <v>7.2447</v>
       </c>
       <c r="G49" t="n">
-        <v>-724057.9323655529</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2266,22 +2187,21 @@
         <v>40893.4964</v>
       </c>
       <c r="G50" t="n">
-        <v>-764951.4287655528</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2303,22 +2223,21 @@
         <v>9755.7191</v>
       </c>
       <c r="G51" t="n">
-        <v>-755195.7096655528</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2340,22 +2259,21 @@
         <v>1893.4113</v>
       </c>
       <c r="G52" t="n">
-        <v>-755195.7096655528</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2377,22 +2295,21 @@
         <v>23700</v>
       </c>
       <c r="G53" t="n">
-        <v>-731495.7096655528</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2414,22 +2331,21 @@
         <v>5676.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>-737172.7095655529</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2451,22 +2367,21 @@
         <v>6350.736</v>
       </c>
       <c r="G55" t="n">
-        <v>-737172.7095655529</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2488,22 +2403,21 @@
         <v>1752.6025</v>
       </c>
       <c r="G56" t="n">
-        <v>-738925.3120655529</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1.033461538461538</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2525,22 +2439,15 @@
         <v>15800</v>
       </c>
       <c r="G57" t="n">
-        <v>-723125.3120655529</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2562,22 +2469,15 @@
         <v>673.6386</v>
       </c>
       <c r="G58" t="n">
-        <v>-723798.9506655529</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2599,22 +2499,15 @@
         <v>10540</v>
       </c>
       <c r="G59" t="n">
-        <v>-734338.9506655529</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2636,24 +2529,15 @@
         <v>5780</v>
       </c>
       <c r="G60" t="n">
-        <v>-728558.9506655529</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2675,24 +2559,15 @@
         <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>-718558.9506655529</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18.78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2714,24 +2589,15 @@
         <v>5780</v>
       </c>
       <c r="G62" t="n">
-        <v>-718558.9506655529</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>18.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2753,24 +2619,15 @@
         <v>250</v>
       </c>
       <c r="G63" t="n">
-        <v>-718808.9506655529</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>18.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2792,24 +2649,15 @@
         <v>4880.8229</v>
       </c>
       <c r="G64" t="n">
-        <v>-713928.1277655528</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2831,24 +2679,15 @@
         <v>170000</v>
       </c>
       <c r="G65" t="n">
-        <v>-883928.1277655528</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>18.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2870,22 +2709,15 @@
         <v>15873</v>
       </c>
       <c r="G66" t="n">
-        <v>-899801.1277655528</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2907,24 +2739,15 @@
         <v>3931.2514</v>
       </c>
       <c r="G67" t="n">
-        <v>-895869.8763655529</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>18.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2946,24 +2769,15 @@
         <v>29650.43</v>
       </c>
       <c r="G68" t="n">
-        <v>-866219.4463655528</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2985,24 +2799,15 @@
         <v>44461.8675</v>
       </c>
       <c r="G69" t="n">
-        <v>-910681.3138655529</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>18.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3024,24 +2829,15 @@
         <v>25331</v>
       </c>
       <c r="G70" t="n">
-        <v>-936012.3138655529</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3063,24 +2859,15 @@
         <v>52675.7986</v>
       </c>
       <c r="G71" t="n">
-        <v>-883336.5152655529</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>18.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3102,24 +2889,15 @@
         <v>133.5241</v>
       </c>
       <c r="G72" t="n">
-        <v>-883202.9911655529</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3141,24 +2919,15 @@
         <v>592</v>
       </c>
       <c r="G73" t="n">
-        <v>-883794.9911655529</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>18.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3180,22 +2949,15 @@
         <v>35100</v>
       </c>
       <c r="G74" t="n">
-        <v>-848694.9911655529</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3217,22 +2979,15 @@
         <v>145245.9429</v>
       </c>
       <c r="G75" t="n">
-        <v>-703449.0482655528</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3254,22 +3009,15 @@
         <v>212.3511</v>
       </c>
       <c r="G76" t="n">
-        <v>-703449.0482655528</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3291,22 +3039,15 @@
         <v>10913</v>
       </c>
       <c r="G77" t="n">
-        <v>-714362.0482655528</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3328,22 +3069,15 @@
         <v>2526</v>
       </c>
       <c r="G78" t="n">
-        <v>-714362.0482655528</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3365,22 +3099,15 @@
         <v>63916.4222</v>
       </c>
       <c r="G79" t="n">
-        <v>-714362.0482655528</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3402,22 +3129,15 @@
         <v>3192</v>
       </c>
       <c r="G80" t="n">
-        <v>-714362.0482655528</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3439,22 +3159,15 @@
         <v>136766.9895</v>
       </c>
       <c r="G81" t="n">
-        <v>-714362.0482655528</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3476,22 +3189,15 @@
         <v>771</v>
       </c>
       <c r="G82" t="n">
-        <v>-715133.0482655528</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3513,22 +3219,15 @@
         <v>372.0669</v>
       </c>
       <c r="G83" t="n">
-        <v>-715505.1151655528</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3550,22 +3249,15 @@
         <v>296.5636</v>
       </c>
       <c r="G84" t="n">
-        <v>-715801.6787655528</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3587,22 +3279,15 @@
         <v>92.3544</v>
       </c>
       <c r="G85" t="n">
-        <v>-715894.0331655528</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3624,22 +3309,15 @@
         <v>13386.4286</v>
       </c>
       <c r="G86" t="n">
-        <v>-702507.6045655528</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3661,22 +3339,15 @@
         <v>2471.2939</v>
       </c>
       <c r="G87" t="n">
-        <v>-704978.8984655528</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3698,22 +3369,15 @@
         <v>157.5012</v>
       </c>
       <c r="G88" t="n">
-        <v>-705136.3996655529</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3735,24 +3399,15 @@
         <v>5100</v>
       </c>
       <c r="G89" t="n">
-        <v>-700036.3996655529</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3774,24 +3429,15 @@
         <v>306.0063</v>
       </c>
       <c r="G90" t="n">
-        <v>-700036.3996655529</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>18.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3813,24 +3459,15 @@
         <v>5346.594</v>
       </c>
       <c r="G91" t="n">
-        <v>-700036.3996655529</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>18.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3852,24 +3489,15 @@
         <v>37400</v>
       </c>
       <c r="G92" t="n">
-        <v>-662636.3996655529</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3891,24 +3519,15 @@
         <v>4842.0215</v>
       </c>
       <c r="G93" t="n">
-        <v>-657794.3781655529</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>18.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3930,22 +3549,15 @@
         <v>28722.2562</v>
       </c>
       <c r="G94" t="n">
-        <v>-686516.6343655528</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3967,22 +3579,15 @@
         <v>28054.3145</v>
       </c>
       <c r="G95" t="n">
-        <v>-714570.9488655528</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4004,24 +3609,15 @@
         <v>4309.8377</v>
       </c>
       <c r="G96" t="n">
-        <v>-710261.1111655527</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4043,22 +3639,15 @@
         <v>6263.2618</v>
       </c>
       <c r="G97" t="n">
-        <v>-716524.3729655527</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4080,24 +3669,15 @@
         <v>11400</v>
       </c>
       <c r="G98" t="n">
-        <v>-727924.3729655527</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>18.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4119,22 +3699,15 @@
         <v>316.6797</v>
       </c>
       <c r="G99" t="n">
-        <v>-727924.3729655527</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4156,22 +3729,15 @@
         <v>48759.154</v>
       </c>
       <c r="G100" t="n">
-        <v>-776683.5269655527</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4193,22 +3759,15 @@
         <v>1074.2175</v>
       </c>
       <c r="G101" t="n">
-        <v>-775609.3094655527</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4230,22 +3789,15 @@
         <v>95</v>
       </c>
       <c r="G102" t="n">
-        <v>-775609.3094655527</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4267,22 +3819,15 @@
         <v>2923.4495</v>
       </c>
       <c r="G103" t="n">
-        <v>-772685.8599655527</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4304,22 +3849,15 @@
         <v>7900</v>
       </c>
       <c r="G104" t="n">
-        <v>-780585.8599655527</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4341,22 +3879,15 @@
         <v>2417.7253</v>
       </c>
       <c r="G105" t="n">
-        <v>-778168.1346655526</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4378,22 +3909,15 @@
         <v>5578.6735</v>
       </c>
       <c r="G106" t="n">
-        <v>-772589.4611655526</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4415,20 +3939,15 @@
         <v>1290.5426</v>
       </c>
       <c r="G107" t="n">
-        <v>-772589.4611655526</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K107" t="n">
+        <v>1</v>
       </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4450,18 +3969,15 @@
         <v>1674.5153</v>
       </c>
       <c r="G108" t="n">
-        <v>-770914.9458655526</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4483,18 +3999,15 @@
         <v>690.6215999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-770914.9458655526</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4516,18 +4029,15 @@
         <v>516.6577</v>
       </c>
       <c r="G110" t="n">
-        <v>-770398.2881655527</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4549,18 +4059,15 @@
         <v>2000</v>
       </c>
       <c r="G111" t="n">
-        <v>-768398.2881655527</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4582,18 +4089,15 @@
         <v>2510.2231</v>
       </c>
       <c r="G112" t="n">
-        <v>-770908.5112655526</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4615,18 +4119,15 @@
         <v>20663.1324</v>
       </c>
       <c r="G113" t="n">
-        <v>-770908.5112655526</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
